--- a/temp/SYWG scd.xlsx
+++ b/temp/SYWG scd.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="210">
   <si>
     <t>证券代码</t>
   </si>
@@ -32,11 +32,6 @@
     <t>证券简称</t>
   </si>
   <si>
-    <t>总市值2_x000D_
-[交易日期] 最新收盘日_x000D_
-[单位] 元</t>
-  </si>
-  <si>
     <t>801011.SI</t>
   </si>
   <si>
@@ -659,29 +654,16 @@
   </si>
   <si>
     <t>其他交运设备Ⅱ(申万)</t>
-  </si>
-  <si>
-    <t>数据来源：Wind资讯</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="###,###,###,##0.0000"/>
-  </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -722,27 +704,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -1059,1175 +1029,859 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C107"/>
+  <dimension ref="A1:B105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C83" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomRight" activeCell="B114" sqref="B114:B115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="8.88671875" style="1"/>
-    <col min="3" max="3" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="19.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.44140625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="6" t="s">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="7">
-        <v>24053872938</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="6" t="s">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="7">
-        <v>135508527348</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+      <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="6" t="s">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="7">
-        <v>11110085135</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+      <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="6" t="s">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="7">
-        <v>199921284473</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+      <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="6" t="s">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="7">
-        <v>53889131145</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+      <c r="B7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="6" t="s">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="7">
-        <v>143228407962</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
+      <c r="B8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="6" t="s">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="7">
-        <v>330410705976</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
+      <c r="B9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="6" t="s">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="7">
-        <v>68456816117</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
+      <c r="B10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="6" t="s">
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="7">
-        <v>748659341277</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
+      <c r="B11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="6" t="s">
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="7">
-        <v>88823697434</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
+      <c r="B12" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="6" t="s">
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="7">
-        <v>1189234749197</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
+      <c r="B13" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="6" t="s">
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="7">
-        <v>165553907642</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
+      <c r="B14" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="6" t="s">
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="7">
-        <v>195806898845</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
+      <c r="B15" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="6" t="s">
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="7">
-        <v>211669844856</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
+      <c r="B16" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="6" t="s">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="7">
-        <v>1393357272858</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
+      <c r="B17" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="6" t="s">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="7">
-        <v>620542471928</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="6" t="s">
+      <c r="B18" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="6" t="s">
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="7">
-        <v>228119257215</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="6" t="s">
+      <c r="B19" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="6" t="s">
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="7">
-        <v>167953471462</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="6" t="s">
+      <c r="B20" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="6" t="s">
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="7">
-        <v>578824714450</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="6" t="s">
+      <c r="B21" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="6" t="s">
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="7">
-        <v>267787386976</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="6" t="s">
+      <c r="B22" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="6" t="s">
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="7">
-        <v>268192886912</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="6" t="s">
+      <c r="B23" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B23" s="6" t="s">
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="7">
-        <v>399441946283</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="6" t="s">
+      <c r="B24" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B24" s="6" t="s">
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="7">
-        <v>547493800746</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="6" t="s">
+      <c r="B25" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B25" s="6" t="s">
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="7">
-        <v>775861985862</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="6" t="s">
+      <c r="B26" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B26" s="6" t="s">
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C26" s="7">
-        <v>138739054534</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="6" t="s">
+      <c r="B27" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B27" s="6" t="s">
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C27" s="7">
-        <v>979164595417</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="6" t="s">
+      <c r="B28" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B28" s="6" t="s">
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C28" s="7">
-        <v>106633055049</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="6" t="s">
+      <c r="B29" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B29" s="6" t="s">
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C29" s="7">
-        <v>286935049861</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="6" t="s">
+      <c r="B30" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B30" s="6" t="s">
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C30" s="7">
-        <v>287004491041</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="6" t="s">
+      <c r="B31" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B31" s="6" t="s">
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C31" s="7">
-        <v>276443949724</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="6" t="s">
+      <c r="B32" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B32" s="6" t="s">
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C32" s="7">
-        <v>267759775940</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="6" t="s">
+      <c r="B33" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B33" s="6" t="s">
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C33" s="7">
-        <v>648696235298</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="6" t="s">
+      <c r="B34" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B34" s="6" t="s">
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C34" s="7">
-        <v>443479662311</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="6" t="s">
+      <c r="B35" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B35" s="6" t="s">
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C35" s="7">
-        <v>168770618136</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="6" t="s">
+      <c r="B36" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B36" s="6" t="s">
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C36" s="7">
-        <v>867385764363</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="6" t="s">
+      <c r="B37" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B37" s="6" t="s">
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C37" s="7">
-        <v>837678659699</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="6" t="s">
+      <c r="B38" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B38" s="6" t="s">
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C38" s="7">
-        <v>745400868010</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="6" t="s">
+      <c r="B39" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B39" s="6" t="s">
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C39" s="7">
-        <v>792095091321</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="6" t="s">
+      <c r="B40" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B40" s="6" t="s">
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C40" s="7">
-        <v>785314486729</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="6" t="s">
+      <c r="B41" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B41" s="6" t="s">
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C41" s="7">
-        <v>177569881881</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="6" t="s">
+      <c r="B42" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B42" s="6" t="s">
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C42" s="7">
-        <v>1084273333999</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="6" t="s">
+      <c r="B43" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B43" s="6" t="s">
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C43" s="7">
-        <v>553436665432</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="6" t="s">
+      <c r="B44" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B44" s="6" t="s">
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C44" s="7">
-        <v>219850024056</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="6" t="s">
+      <c r="B45" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B45" s="6" t="s">
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C45" s="7">
-        <v>467476703412</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="6" t="s">
+      <c r="B46" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B46" s="6" t="s">
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C46" s="7">
-        <v>266315527684</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="6" t="s">
+      <c r="B47" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B47" s="6" t="s">
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C47" s="7">
-        <v>391835220118</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="6" t="s">
+      <c r="B48" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B48" s="6" t="s">
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C48" s="7">
-        <v>160379908105</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="6" t="s">
+      <c r="B49" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B49" s="6" t="s">
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C49" s="7"/>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="6" t="s">
+      <c r="B50" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B50" s="6" t="s">
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C50" s="7">
-        <v>900866808721</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" s="6" t="s">
+      <c r="B51" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="B51" s="6" t="s">
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C51" s="7">
-        <v>514030466020</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="6" t="s">
+      <c r="B52" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B52" s="6" t="s">
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C52" s="7">
-        <v>259272020343</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="6" t="s">
+      <c r="B53" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B53" s="6" t="s">
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C53" s="7">
-        <v>284205093114</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" s="6" t="s">
+      <c r="B54" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B54" s="6" t="s">
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C54" s="7">
-        <v>909556080321</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" s="6" t="s">
+      <c r="B55" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B55" s="6" t="s">
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C55" s="7">
-        <v>234484369710</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" s="6" t="s">
+      <c r="B56" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="B56" s="6" t="s">
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C56" s="7">
-        <v>1363510203585</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" s="6" t="s">
+      <c r="B57" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B57" s="6" t="s">
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="C57" s="7">
-        <v>336646437819</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" s="6" t="s">
+      <c r="B58" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="B58" s="6" t="s">
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C58" s="7">
-        <v>130279811960</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" s="6" t="s">
+      <c r="B59" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="B59" s="6" t="s">
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C59" s="7">
-        <v>151586598605</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" s="6" t="s">
+      <c r="B60" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="B60" s="6" t="s">
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C60" s="7">
-        <v>366425137961</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" s="6" t="s">
+      <c r="B61" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B61" s="6" t="s">
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C61" s="7">
-        <v>63415162274</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" s="6" t="s">
+      <c r="B62" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B62" s="6" t="s">
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="C62" s="7">
-        <v>323856477578</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" s="6" t="s">
+      <c r="B63" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="B63" s="6" t="s">
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="C63" s="7">
-        <v>92866538560</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" s="6" t="s">
+      <c r="B64" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B64" s="6" t="s">
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="C64" s="7">
-        <v>198925747870</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" s="6" t="s">
+      <c r="B65" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B65" s="6" t="s">
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="C65" s="7">
-        <v>191482855673</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" s="6" t="s">
+      <c r="B66" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="B66" s="6" t="s">
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="C66" s="7">
-        <v>122110522465</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67" s="6" t="s">
+      <c r="B67" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="B67" s="6" t="s">
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="C67" s="7">
-        <v>251488136108</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68" s="6" t="s">
+      <c r="B68" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="B68" s="6" t="s">
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C68" s="7">
-        <v>2058153052663</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69" s="6" t="s">
+      <c r="B69" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="B69" s="6" t="s">
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="C69" s="7">
-        <v>215272758086</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70" s="6" t="s">
+      <c r="B70" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="B70" s="6" t="s">
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C70" s="7">
-        <v>213110491696</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71" s="6" t="s">
+      <c r="B71" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="B71" s="6" t="s">
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="C71" s="7">
-        <v>5205179137821</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72" s="6" t="s">
+      <c r="B72" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="B72" s="6" t="s">
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="C72" s="7">
-        <v>1885486426214.99</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73" s="6" t="s">
+      <c r="B73" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="B73" s="6" t="s">
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="C73" s="7">
-        <v>1080864575233</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A74" s="6" t="s">
+      <c r="B74" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="B74" s="6" t="s">
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="C74" s="7">
-        <v>218749197254</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A75" s="6" t="s">
+      <c r="B75" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B75" s="6" t="s">
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="C75" s="7">
-        <v>428083468926</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A76" s="6" t="s">
+      <c r="B76" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="B76" s="6" t="s">
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="C76" s="7">
-        <v>195665606148</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A77" s="6" t="s">
+      <c r="B77" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="B77" s="6" t="s">
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="C77" s="7">
-        <v>145224209752</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A78" s="6" t="s">
+      <c r="B78" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="B78" s="6" t="s">
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="C78" s="7">
-        <v>19082335139</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A79" s="6" t="s">
+      <c r="B79" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="B79" s="6" t="s">
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="C79" s="7">
-        <v>70698851505</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A80" s="6" t="s">
+      <c r="B80" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="B80" s="6" t="s">
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="C80" s="7">
-        <v>47437391541</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A81" s="6" t="s">
+      <c r="B81" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="B81" s="6" t="s">
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="C81" s="7">
-        <v>233261847658</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A82" s="6" t="s">
+      <c r="B82" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="B82" s="6" t="s">
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="C82" s="7"/>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A83" s="6" t="s">
+      <c r="B83" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="B83" s="6" t="s">
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="C83" s="7">
-        <v>1487096165086</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A84" s="6" t="s">
+      <c r="B84" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="B84" s="6" t="s">
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="C84" s="7">
-        <v>110456633656</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A85" s="6" t="s">
+      <c r="B85" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="B85" s="6" t="s">
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="C85" s="7">
-        <v>362344136514</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A86" s="6" t="s">
+      <c r="B86" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="B86" s="6" t="s">
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="C86" s="7">
-        <v>210454759728</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A87" s="6" t="s">
+      <c r="B87" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="B87" s="6" t="s">
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="C87" s="7">
-        <v>68609194171</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A88" s="6" t="s">
+      <c r="B88" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="B88" s="6" t="s">
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="C88" s="7">
-        <v>278969754514</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A89" s="6" t="s">
+      <c r="B89" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="B89" s="6" t="s">
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="C89" s="7">
-        <v>220539833674</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A90" s="6" t="s">
+      <c r="B90" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="B90" s="6" t="s">
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="C90" s="7">
-        <v>164233197907</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A91" s="6" t="s">
+      <c r="B91" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="B91" s="6" t="s">
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="C91" s="7">
-        <v>689025469975</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A92" s="6" t="s">
+      <c r="B92" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="B92" s="6" t="s">
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="C92" s="7">
-        <v>276609010653</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A93" s="6" t="s">
+      <c r="B93" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="B93" s="6" t="s">
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="C93" s="7">
-        <v>131722699406</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A94" s="6" t="s">
+      <c r="B94" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="B94" s="6" t="s">
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="C94" s="7">
-        <v>89681530019</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A95" s="6" t="s">
+      <c r="B95" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="B95" s="6" t="s">
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="C95" s="7">
-        <v>404066271686</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A96" s="6" t="s">
+      <c r="B96" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="B96" s="6" t="s">
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="C96" s="7">
-        <v>608661243219</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A97" s="6" t="s">
+      <c r="B97" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="B97" s="6" t="s">
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="C97" s="7">
-        <v>592153489613</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A98" s="6" t="s">
+      <c r="B98" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="B98" s="6" t="s">
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="C98" s="7">
-        <v>141508922826</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A99" s="6" t="s">
+      <c r="B99" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="B99" s="6" t="s">
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="C99" s="7">
-        <v>335426803797</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A100" s="6" t="s">
+      <c r="B100" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="B100" s="6" t="s">
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="C100" s="7">
-        <v>67692388631</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A101" s="6" t="s">
+      <c r="B101" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="B101" s="6" t="s">
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="C101" s="7">
-        <v>222532871686</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A102" s="6" t="s">
+      <c r="B102" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="B102" s="6" t="s">
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="C102" s="7">
-        <v>341208664378</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A103" s="6" t="s">
+      <c r="B103" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="B103" s="6" t="s">
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="C103" s="7">
-        <v>624372223333</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A104" s="6" t="s">
+      <c r="B104" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="B104" s="6" t="s">
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="C104" s="7">
-        <v>991901562739</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A105" s="6" t="s">
+      <c r="B105" s="3" t="s">
         <v>209</v>
-      </c>
-      <c r="B105" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="C105" s="7">
-        <v>44356219533</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A107" s="3" t="s">
-        <v>211</v>
       </c>
     </row>
   </sheetData>
